--- a/Investment/THS/AutoTrade/data/Robot_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/Robot_portfolio_today.xlsx
@@ -7,9 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-04" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,6 +428,236 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>交易数量</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>有色金属</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鄂尔多斯</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>sh600295</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-04 09:30</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>钢铁</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>振江股份</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>sh603507</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>24.65</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-04 09:30</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>钢铁</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大业股份</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>sh603278</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-04 09:30</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>10700</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>建筑行业</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中设股份</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>sz002883</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-04 09:30</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>6400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -733,7 +964,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -922,7 +1153,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Investment/THS/AutoTrade/data/Robot_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/Robot_portfolio_today.xlsx
@@ -7,10 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-04" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-04" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,6 +430,343 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>交易数量</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>有色金属</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广晟有色</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>sh600259</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>60</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-06 09:30</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>建筑行业</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>城地香江</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>sh603887</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-06 09:30</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>4800</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>交易数量</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>有色金属</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝钛股份</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>sh600456</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>31.57</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-05 09:30</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>有色金属</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广晟有色</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>sh600259</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>61.66</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-05 09:30</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>建筑行业</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中设股份</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>sz002883</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-05 09:30</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>6400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -652,7 +991,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -964,7 +1303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1153,7 +1492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Investment/THS/AutoTrade/data/Robot_portfolio_today.xlsx
+++ b/Investment/THS/AutoTrade/data/Robot_portfolio_today.xlsx
@@ -7,12 +7,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-04" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-04" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,6 +431,195 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>交易数量</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>有色金属</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>云南锗业</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>sz002428</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>21.74</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-07 09:30</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>钢铁</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大金重工</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>sz002487</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-07 09:30</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>建筑行业</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>文科园林</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>sz002775</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-07 09:30</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>17700</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -572,7 +762,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -761,7 +951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -991,7 +1181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1303,7 +1493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1492,7 +1682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
